--- a/Defects/Defect 002.xlsx
+++ b/Defects/Defect 002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Class12Capstone\Defects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C454E39-71D1-45B6-B8F6-3E151CDC4D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7C9DED-CF91-46C3-BB34-C5CB46DD4FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E118DE6-775F-49D8-9587-4B72628C5B02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30737181-DF82-4EFA-AFDF-DE0A798BB558}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect2" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>TC_PetAdd_05- Accent mark above the "a"</t>
+    <t>TC_ADD_PET_API_05(2.0) Add a pet type through the API</t>
   </si>
   <si>
     <t>Reporter</t>
@@ -74,7 +74,7 @@
     <t>Summary</t>
   </si>
   <si>
-    <t xml:space="preserve">Entering a pet name with the lower case "a" causes an accent mark to appear above it after you save it to the database. </t>
+    <t xml:space="preserve"> After adding a pet, the accent mark appears over the a when displayed on the list. </t>
   </si>
   <si>
     <t>URL</t>
@@ -311,7 +311,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0D8851B4-A617-4B67-9A97-F3CF2F4C0C74}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1E4F0743-0C49-46D0-857C-0E8D91638071}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -346,7 +346,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDBEE1A-ACC0-4D1E-B96F-9DEB7042620E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E798C79-AD98-407F-9E77-0BD27BD0FE89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -676,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E930E8-5A98-45DA-80CF-D42B0762F487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326758EE-001E-453E-9169-9179AB547851}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,7 +880,7 @@
     <mergeCell ref="A16:A18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{CA1604F5-AD87-4798-9A4B-C54A599726DA}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{C32D211F-BF0D-4259-A1BC-273B53DA1C52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
